--- a/pagefile/test_data/K8S_call_log_save_testdata/data.xlsx
+++ b/pagefile/test_data/K8S_call_log_save_testdata/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="call_log_data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="331">
   <si>
     <t>caller（主叫号码）</t>
   </si>
@@ -405,6 +405,609 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:23</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:24</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:25</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:26</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:27</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:28</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:29</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:30</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:31</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:32</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:33</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:34</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:35</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:36</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:37</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:38</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:39</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:40</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:41</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:42</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:43</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:44</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:45</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:46</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:47</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:48</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:49</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:50</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:51</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:52</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:53</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:54</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:55</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:56</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:57</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:58</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:59</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:60</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:61</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:62</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:63</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:64</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:65</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:66</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:67</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:68</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:69</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:70</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:71</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:72</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:73</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:74</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:75</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:76</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:77</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:78</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:79</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:80</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:81</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:82</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:83</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:84</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:85</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:86</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:87</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:88</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>2019-04-16 00:00:89</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -412,57 +1015,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,22 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,33 +1044,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,15 +1075,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +1117,61 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -586,19 +1182,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,7 +1206,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +1254,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,91 +1344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,37 +1362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,60 +1373,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -860,11 +1402,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,148 +1476,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,7 +1950,7 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -2237,10 +2833,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2878,8 +3474,1747 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="1"/>
+    <row r="25" ht="28.8" spans="1:8">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:8">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:8">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="1:8">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="28.8" spans="1:8">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" spans="1:8">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="28.8" spans="1:8">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="28.8" spans="1:8">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" spans="1:8">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="1:8">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:8">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="28.8" spans="1:8">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" spans="1:8">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" ht="28.8" spans="1:8">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" ht="28.8" spans="1:8">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:8">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" ht="28.8" spans="1:8">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" ht="28.8" spans="1:8">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" ht="28.8" spans="1:8">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" ht="28.8" spans="1:8">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" ht="28.8" spans="1:8">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" ht="28.8" spans="1:8">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" ht="28.8" spans="1:8">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" ht="28.8" spans="1:8">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" ht="28.8" spans="1:8">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" ht="28.8" spans="1:8">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" ht="28.8" spans="1:8">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" ht="28.8" spans="1:8">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" ht="28.8" spans="1:8">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" ht="28.8" spans="1:8">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" ht="28.8" spans="1:8">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" ht="28.8" spans="1:8">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" ht="28.8" spans="1:8">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" ht="28.8" spans="1:8">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" ht="28.8" spans="1:8">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" ht="28.8" spans="1:8">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" ht="28.8" spans="1:8">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" ht="28.8" spans="1:8">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" ht="28.8" spans="1:8">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" ht="28.8" spans="1:8">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" ht="28.8" spans="1:8">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" ht="28.8" spans="1:8">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" ht="28.8" spans="1:8">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" ht="28.8" spans="1:8">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" ht="28.8" spans="1:8">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" ht="28.8" spans="1:8">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" ht="28.8" spans="1:8">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" ht="28.8" spans="1:8">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" ht="28.8" spans="1:8">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" ht="28.8" spans="1:8">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" ht="28.8" spans="1:8">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" ht="28.8" spans="1:8">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" ht="28.8" spans="1:8">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" ht="28.8" spans="1:8">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" ht="28.8" spans="1:8">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" ht="28.8" spans="1:8">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" ht="28.8" spans="1:8">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" ht="28.8" spans="1:8">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" ht="28.8" spans="1:8">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" ht="28.8" spans="1:8">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" ht="28.8" spans="1:8">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" ht="28.8" spans="1:8">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" ht="28.8" spans="1:8">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" ht="28.8" spans="1:8">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" ht="28.8" spans="1:8">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" ht="28.8" spans="1:8">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" ht="28.8" spans="1:8">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
